--- a/data/trans_orig/P2A_lim_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P2A_lim_R-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>114346</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>95521</v>
+        <v>95748</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>134371</v>
+        <v>137241</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1112150608463512</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09290527680358537</v>
+        <v>0.09312567773609</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1306916470521619</v>
+        <v>0.1334830469822167</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>153</v>
@@ -765,19 +765,19 @@
         <v>159671</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>137455</v>
+        <v>135651</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>187431</v>
+        <v>184443</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1215255805786561</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1046174493850019</v>
+        <v>0.1032441540699446</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1426544046972738</v>
+        <v>0.1403796848265634</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>271</v>
@@ -786,19 +786,19 @@
         <v>274017</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>245445</v>
+        <v>243541</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>307248</v>
+        <v>305084</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1169992623924235</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1047996275240442</v>
+        <v>0.1039865875928418</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1311880309338183</v>
+        <v>0.1302641077846976</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>913810</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>893785</v>
+        <v>890915</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>932635</v>
+        <v>932408</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8887849391536488</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.869308352947838</v>
+        <v>0.8665169530177832</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9070947231964145</v>
+        <v>0.90687432226391</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1137</v>
@@ -836,19 +836,19 @@
         <v>1154214</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1126454</v>
+        <v>1129442</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1176430</v>
+        <v>1178234</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8784744194213439</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8573455953027261</v>
+        <v>0.8596203151734365</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8953825506149977</v>
+        <v>0.8967558459300553</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2054</v>
@@ -857,19 +857,19 @@
         <v>2068024</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2034793</v>
+        <v>2036957</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2096596</v>
+        <v>2098500</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8830007376075765</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8688119690661815</v>
+        <v>0.8697358922153023</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8952003724759556</v>
+        <v>0.8960134124071581</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>83028</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>66405</v>
+        <v>66503</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>104149</v>
+        <v>103160</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04913737158887008</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03929966849513835</v>
+        <v>0.03935719800821562</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06163705372777865</v>
+        <v>0.06105148104070818</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>80</v>
@@ -982,19 +982,19 @@
         <v>84540</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>67131</v>
+        <v>69000</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>102797</v>
+        <v>106838</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05335022963772915</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04236398622885484</v>
+        <v>0.04354332663325287</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06487150698075528</v>
+        <v>0.06742146908989655</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>160</v>
@@ -1003,19 +1003,19 @@
         <v>167569</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>143572</v>
+        <v>142921</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>195689</v>
+        <v>192340</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05117619053400621</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04384747734307795</v>
+        <v>0.0436487115942596</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05976435708559318</v>
+        <v>0.05874145337894596</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1606693</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1585572</v>
+        <v>1586561</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1623316</v>
+        <v>1623218</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9508626284111299</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9383629462722213</v>
+        <v>0.9389485189592915</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9607003315048616</v>
+        <v>0.9606428019917842</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1471</v>
@@ -1053,19 +1053,19 @@
         <v>1500085</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1481828</v>
+        <v>1477787</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1517494</v>
+        <v>1515625</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9466497703622708</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9351284930192446</v>
+        <v>0.9325785309101037</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9576360137711448</v>
+        <v>0.9564566733667471</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3036</v>
@@ -1074,19 +1074,19 @@
         <v>3106777</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3078657</v>
+        <v>3082006</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3130774</v>
+        <v>3131425</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9488238094659938</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9402356429144071</v>
+        <v>0.9412585466210538</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9561525226569222</v>
+        <v>0.9563512884057405</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>20284</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12418</v>
+        <v>12253</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33660</v>
+        <v>31483</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0369212618171204</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02260307121072875</v>
+        <v>0.02230259734738779</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06126896785127634</v>
+        <v>0.05730476713607269</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -1199,19 +1199,19 @@
         <v>27219</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18124</v>
+        <v>18387</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38083</v>
+        <v>39632</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05713337206672778</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03804260552940392</v>
+        <v>0.03859497287487582</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07993613276051804</v>
+        <v>0.08318831463913437</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>42</v>
@@ -1220,19 +1220,19 @@
         <v>47503</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>34104</v>
+        <v>34693</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>63796</v>
+        <v>63627</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04630835684255202</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0332460860510323</v>
+        <v>0.03382027135036807</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06219146491317059</v>
+        <v>0.06202642083169373</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>529105</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>515729</v>
+        <v>517906</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>536971</v>
+        <v>537136</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9630787381828796</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9387310321487239</v>
+        <v>0.9426952328639275</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9773969287892712</v>
+        <v>0.9776974026526123</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>427</v>
@@ -1270,19 +1270,19 @@
         <v>449193</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>438329</v>
+        <v>436780</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>458288</v>
+        <v>458025</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9428666279332722</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.920063867239482</v>
+        <v>0.9168116853608657</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9619573944705957</v>
+        <v>0.9614050271251241</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>935</v>
@@ -1291,19 +1291,19 @@
         <v>978297</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>962004</v>
+        <v>962173</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>991696</v>
+        <v>991107</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.953691643157448</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9378085350868294</v>
+        <v>0.9379735791683063</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9667539139489677</v>
+        <v>0.966179728649632</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>217659</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>190354</v>
+        <v>191402</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>246465</v>
+        <v>246677</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06661808953176103</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05826097621438767</v>
+        <v>0.05858168807389409</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07543451453477348</v>
+        <v>0.07549964350909698</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>258</v>
@@ -1416,19 +1416,19 @@
         <v>271430</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>240731</v>
+        <v>242864</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>304473</v>
+        <v>308087</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08042549863251321</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07132937077228231</v>
+        <v>0.07196130251483422</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09021640678459221</v>
+        <v>0.09128723488776636</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>473</v>
@@ -1437,19 +1437,19 @@
         <v>489089</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>444863</v>
+        <v>445760</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>535319</v>
+        <v>533781</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07363368797087154</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0669753460100523</v>
+        <v>0.06711035356701867</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08059379798453752</v>
+        <v>0.08036220624315714</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3049607</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3020801</v>
+        <v>3020589</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3076912</v>
+        <v>3075864</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9333819104682389</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9245654854652267</v>
+        <v>0.9245003564909031</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9417390237856124</v>
+        <v>0.9414183119261059</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3035</v>
@@ -1487,19 +1487,19 @@
         <v>3103491</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3070448</v>
+        <v>3066834</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3134190</v>
+        <v>3132057</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9195745013674868</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9097835932154078</v>
+        <v>0.9087127651122336</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9286706292277177</v>
+        <v>0.9280386974851659</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6025</v>
@@ -1508,19 +1508,19 @@
         <v>6153098</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6106868</v>
+        <v>6108406</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6197324</v>
+        <v>6196427</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9263663120291284</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9194062020154623</v>
+        <v>0.9196377937568427</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9330246539899476</v>
+        <v>0.9328896464329813</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>157042</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>133387</v>
+        <v>132544</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>181152</v>
+        <v>184481</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1612907916899558</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1369957692614456</v>
+        <v>0.1361295937283871</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1860531201869044</v>
+        <v>0.1894723583541669</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>196</v>
@@ -1872,19 +1872,19 @@
         <v>211964</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>185079</v>
+        <v>187027</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>242878</v>
+        <v>239357</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1584424123299418</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1383459165330617</v>
+        <v>0.1398023439431861</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1815503824366848</v>
+        <v>0.1789184692455512</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>334</v>
@@ -1893,19 +1893,19 @@
         <v>369006</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>332032</v>
+        <v>333728</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>403068</v>
+        <v>404946</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1596422395574058</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1436465337727008</v>
+        <v>0.1443802265356929</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1743785719802232</v>
+        <v>0.1751911000893947</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>816615</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>792505</v>
+        <v>789176</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>840270</v>
+        <v>841113</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8387092083100441</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8139468798130958</v>
+        <v>0.8105276416458334</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8630042307385547</v>
+        <v>0.8638704062716128</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1051</v>
@@ -1943,19 +1943,19 @@
         <v>1125833</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1094919</v>
+        <v>1098440</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1152718</v>
+        <v>1150770</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8415575876700582</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8184496175633152</v>
+        <v>0.8210815307544488</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8616540834669383</v>
+        <v>0.8601976560568139</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1820</v>
@@ -1964,19 +1964,19 @@
         <v>1942448</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1908386</v>
+        <v>1906508</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1979422</v>
+        <v>1977726</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8403577604425942</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8256214280197768</v>
+        <v>0.8248088999106054</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.856353466227299</v>
+        <v>0.8556197734643073</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>143911</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>119284</v>
+        <v>121934</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>169044</v>
+        <v>168922</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07335733462307001</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06080386444462117</v>
+        <v>0.06215481778379429</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08616876253096996</v>
+        <v>0.08610683047963254</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>146</v>
@@ -2089,19 +2089,19 @@
         <v>161247</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>138928</v>
+        <v>136734</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>187255</v>
+        <v>187915</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09183120526889149</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07912022064719808</v>
+        <v>0.07787057108554489</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1066426547495462</v>
+        <v>0.1070188101581929</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>280</v>
@@ -2110,19 +2110,19 @@
         <v>305158</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>272202</v>
+        <v>271470</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>338817</v>
+        <v>339326</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.082082770179925</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07321802636572498</v>
+        <v>0.07302130627997001</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09113661092156697</v>
+        <v>0.09127356786966211</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1817866</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1792733</v>
+        <v>1792855</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1842493</v>
+        <v>1839843</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.92664266537693</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9138312374690301</v>
+        <v>0.9138931695203675</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9391961355553788</v>
+        <v>0.9378451822162057</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1487</v>
@@ -2160,19 +2160,19 @@
         <v>1594661</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1568653</v>
+        <v>1567993</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1616980</v>
+        <v>1619174</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9081687947311085</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8933573452504536</v>
+        <v>0.8929811898418071</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.920879779352802</v>
+        <v>0.9221294289144552</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3207</v>
@@ -2181,19 +2181,19 @@
         <v>3412527</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3378868</v>
+        <v>3378359</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3445483</v>
+        <v>3446215</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.917917229820075</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9088633890784333</v>
+        <v>0.9087264321303379</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9267819736342751</v>
+        <v>0.9269786937200301</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>24642</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15277</v>
+        <v>15711</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>37352</v>
+        <v>39285</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05121188301783959</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03174931064210875</v>
+        <v>0.03265055319380449</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07762624869719345</v>
+        <v>0.08164276382524574</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>30</v>
@@ -2306,19 +2306,19 @@
         <v>35512</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25091</v>
+        <v>24488</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>50149</v>
+        <v>50483</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0774315229763909</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05470872459303116</v>
+        <v>0.05339458264168318</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1093441392925585</v>
+        <v>0.1100724560549889</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>51</v>
@@ -2327,19 +2327,19 @@
         <v>60155</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>45034</v>
+        <v>45776</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>77879</v>
+        <v>78106</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06400713916500203</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04791776379021277</v>
+        <v>0.04870728100750969</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08286625071862296</v>
+        <v>0.08310799939329618</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>456539</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>443829</v>
+        <v>441896</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>465904</v>
+        <v>465470</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9487881169821604</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9223737513028066</v>
+        <v>0.9183572361747543</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9682506893578913</v>
+        <v>0.9673494468061955</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>382</v>
@@ -2377,19 +2377,19 @@
         <v>423119</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>408482</v>
+        <v>408148</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>433540</v>
+        <v>434143</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9225684770236091</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8906558607074415</v>
+        <v>0.8899275439450111</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9452912754069689</v>
+        <v>0.9466054173583168</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>799</v>
@@ -2398,19 +2398,19 @@
         <v>879658</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>861934</v>
+        <v>861707</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>894779</v>
+        <v>894037</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.935992860834998</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.917133749281377</v>
+        <v>0.9168920006067037</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.952082236209787</v>
+        <v>0.9512927189924902</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>325595</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>292079</v>
+        <v>291832</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>364407</v>
+        <v>362967</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09529748859857212</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08548772030530231</v>
+        <v>0.08541566324748315</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1066574144679606</v>
+        <v>0.1062357249268703</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>372</v>
@@ -2523,19 +2523,19 @@
         <v>408723</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>371440</v>
+        <v>370083</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>451485</v>
+        <v>445240</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1150576420077205</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1045622697766883</v>
+        <v>0.1041800905780938</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.12709527685976</v>
+        <v>0.1253372180046032</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>665</v>
@@ -2544,19 +2544,19 @@
         <v>734318</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>682128</v>
+        <v>682772</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>790059</v>
+        <v>788575</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1053699798526612</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09788105749186413</v>
+        <v>0.09797345663073204</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1133684850167439</v>
+        <v>0.1131555436759712</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3091020</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3052208</v>
+        <v>3053648</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3124536</v>
+        <v>3124783</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9047025114014279</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8933425855320394</v>
+        <v>0.8937642750731298</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9145122796946978</v>
+        <v>0.9145843367525172</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2920</v>
@@ -2594,19 +2594,19 @@
         <v>3143613</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3100851</v>
+        <v>3107096</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3180896</v>
+        <v>3182253</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8849423579922795</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8729047231402401</v>
+        <v>0.8746627819953969</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8954377302233117</v>
+        <v>0.8958199094219063</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5826</v>
@@ -2615,19 +2615,19 @@
         <v>6234633</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6178892</v>
+        <v>6180376</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6286823</v>
+        <v>6286179</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8946300201473388</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8866315149832561</v>
+        <v>0.8868444563240289</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9021189425081358</v>
+        <v>0.9020265433692679</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>82814</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>66108</v>
+        <v>66972</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>101768</v>
+        <v>103155</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.10993980043022</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08776198563948966</v>
+        <v>0.0889096257846701</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1351024655412965</v>
+        <v>0.136943710499296</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>133</v>
@@ -2979,19 +2979,19 @@
         <v>153402</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>130605</v>
+        <v>130566</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>179394</v>
+        <v>179502</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1547127695487295</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1317209422420239</v>
+        <v>0.131680957229768</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1809266869995421</v>
+        <v>0.181035016826318</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>215</v>
@@ -3000,19 +3000,19 @@
         <v>236216</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>211282</v>
+        <v>206206</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>272230</v>
+        <v>266205</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1353833576146133</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1210929315947285</v>
+        <v>0.1181835630163034</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1560244078655536</v>
+        <v>0.1525711100511003</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>670449</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>651495</v>
+        <v>650108</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>687155</v>
+        <v>686291</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.89006019956978</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8648975344587033</v>
+        <v>0.863056289500704</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9122380143605102</v>
+        <v>0.91109037421533</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>756</v>
@@ -3050,19 +3050,19 @@
         <v>838128</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>812136</v>
+        <v>812028</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>860925</v>
+        <v>860964</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8452872304512705</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8190733130004578</v>
+        <v>0.8189649831736819</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8682790577579762</v>
+        <v>0.868319042770232</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1435</v>
@@ -3071,19 +3071,19 @@
         <v>1508577</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1472563</v>
+        <v>1478588</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1533511</v>
+        <v>1538587</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8646166423853867</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8439755921344465</v>
+        <v>0.8474288899488998</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8789070684052714</v>
+        <v>0.8818164369836966</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>131631</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>109281</v>
+        <v>110833</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>156188</v>
+        <v>159895</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06374156994890399</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05291877203501956</v>
+        <v>0.05367008686249411</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07563323227934451</v>
+        <v>0.07742826417242007</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>118</v>
@@ -3196,19 +3196,19 @@
         <v>127079</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>106342</v>
+        <v>106721</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>151466</v>
+        <v>150922</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06400947333868097</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05356459254829247</v>
+        <v>0.05375542704178635</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07629344310740235</v>
+        <v>0.07601916532643198</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>237</v>
@@ -3217,19 +3217,19 @@
         <v>258710</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>226447</v>
+        <v>229410</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>290983</v>
+        <v>291434</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06387288378021777</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05590745866349768</v>
+        <v>0.05663903898211913</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07184083903294808</v>
+        <v>0.07195219109692878</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1933443</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1908886</v>
+        <v>1905179</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1955793</v>
+        <v>1954241</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.936258430051096</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9243667677206553</v>
+        <v>0.92257173582758</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9470812279649802</v>
+        <v>0.9463299131375059</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1787</v>
@@ -3267,19 +3267,19 @@
         <v>1858232</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1833845</v>
+        <v>1834389</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1878969</v>
+        <v>1878590</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.935990526661319</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9237065568925975</v>
+        <v>0.9239808346735681</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9464354074517075</v>
+        <v>0.9462445729582136</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3610</v>
@@ -3288,19 +3288,19 @@
         <v>3791675</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3759402</v>
+        <v>3758951</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3823938</v>
+        <v>3820975</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9361271162197822</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.928159160967052</v>
+        <v>0.9280478089030714</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9440925413365027</v>
+        <v>0.943360961017881</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>22410</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13989</v>
+        <v>14611</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32527</v>
+        <v>34528</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04130489526549317</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02578293046854416</v>
+        <v>0.02692938595391653</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05995173708548318</v>
+        <v>0.06363898587789601</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -3413,19 +3413,19 @@
         <v>26652</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18232</v>
+        <v>17700</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>39267</v>
+        <v>38203</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04861546029311065</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03325714081954183</v>
+        <v>0.03228669524896707</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07162715397974358</v>
+        <v>0.06968618426718068</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>46</v>
@@ -3434,19 +3434,19 @@
         <v>49062</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>35517</v>
+        <v>36632</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>64554</v>
+        <v>63062</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.044979141170831</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03256126736636738</v>
+        <v>0.03358382056879679</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0591823226717145</v>
+        <v>0.05781444566354046</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>520144</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>510027</v>
+        <v>508026</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>528565</v>
+        <v>527943</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9586951047345068</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9400482629145168</v>
+        <v>0.9363610141221042</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9742170695314558</v>
+        <v>0.9730706140460835</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>500</v>
@@ -3484,19 +3484,19 @@
         <v>521561</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>508946</v>
+        <v>510010</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>529981</v>
+        <v>530513</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9513845397068893</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9283728460202564</v>
+        <v>0.9303138157328187</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9667428591804579</v>
+        <v>0.9677133047510329</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>976</v>
@@ -3505,19 +3505,19 @@
         <v>1041705</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1026213</v>
+        <v>1027705</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1055250</v>
+        <v>1054135</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.955020858829169</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9408176773282855</v>
+        <v>0.9421855543364596</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9674387326336327</v>
+        <v>0.9664161794312032</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>236855</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>206809</v>
+        <v>209182</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>270431</v>
+        <v>269153</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07047380849861722</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0615341229415569</v>
+        <v>0.06224018194570168</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08046421616820126</v>
+        <v>0.08008388436145705</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>276</v>
@@ -3630,19 +3630,19 @@
         <v>307133</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>276793</v>
+        <v>272190</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>347678</v>
+        <v>344248</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08712851119584659</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07852172937323951</v>
+        <v>0.0772159478726597</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09863046905693706</v>
+        <v>0.09765742084329292</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>498</v>
@@ -3651,19 +3651,19 @@
         <v>543987</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>496863</v>
+        <v>497860</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>593363</v>
+        <v>588159</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07899968639774786</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07215610032053234</v>
+        <v>0.07230088820531207</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08617019447050206</v>
+        <v>0.08541443807375036</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>3124036</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3090460</v>
+        <v>3091738</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3154082</v>
+        <v>3151709</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9295261915013828</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9195357838317987</v>
+        <v>0.9199161156385426</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9384658770584431</v>
+        <v>0.9377598180542982</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3043</v>
@@ -3701,19 +3701,19 @@
         <v>3217921</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3177376</v>
+        <v>3180806</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3248261</v>
+        <v>3252864</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9128714888041534</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9013695309430629</v>
+        <v>0.9023425791567072</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9214782706267607</v>
+        <v>0.9227840521273404</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6021</v>
@@ -3722,19 +3722,19 @@
         <v>6341958</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6292582</v>
+        <v>6297786</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6389082</v>
+        <v>6388085</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9210003136022521</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9138298055294979</v>
+        <v>0.9145855619262496</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9278438996794676</v>
+        <v>0.9276991117946878</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>138891</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>120566</v>
+        <v>121816</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>159047</v>
+        <v>159624</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2406867565726816</v>
+        <v>0.2406867565726817</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2089298505736105</v>
+        <v>0.2110960916835594</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2756138760383509</v>
+        <v>0.2766145836659998</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>397</v>
@@ -4086,19 +4086,19 @@
         <v>220996</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>202052</v>
+        <v>202245</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>241925</v>
+        <v>240879</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2688390745773042</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2457936774142382</v>
+        <v>0.2460289911708448</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2942993574918764</v>
+        <v>0.2930260508160337</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>579</v>
@@ -4107,19 +4107,19 @@
         <v>359887</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>332754</v>
+        <v>332087</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>388646</v>
+        <v>387954</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2572275753155561</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2378343349428165</v>
+        <v>0.237357236447427</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2777829007912684</v>
+        <v>0.2772881724134517</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>438172</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>418016</v>
+        <v>417439</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>456497</v>
+        <v>455247</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7593132434273185</v>
+        <v>0.7593132434273184</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7243861239616497</v>
+        <v>0.7233854163340003</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7910701494263896</v>
+        <v>0.7889039083164405</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1030</v>
@@ -4157,19 +4157,19 @@
         <v>601042</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>580113</v>
+        <v>581159</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>619986</v>
+        <v>619793</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7311609254226958</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7057006425081235</v>
+        <v>0.7069739491839666</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7542063225857618</v>
+        <v>0.7539710088291552</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1538</v>
@@ -4178,19 +4178,19 @@
         <v>1039214</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1010455</v>
+        <v>1011147</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1066347</v>
+        <v>1067014</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7427724246844438</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7222170992087316</v>
+        <v>0.7227118275865481</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7621656650571833</v>
+        <v>0.7626427635525729</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>270846</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>240717</v>
+        <v>237150</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>307330</v>
+        <v>303514</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1224247526940197</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1088059075487376</v>
+        <v>0.1071935406911782</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1389158175294384</v>
+        <v>0.1371907521555651</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>362</v>
@@ -4303,19 +4303,19 @@
         <v>258928</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>234195</v>
+        <v>234272</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>288944</v>
+        <v>285318</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1198991481865012</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1084461407541668</v>
+        <v>0.1084817953322625</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1337983502662226</v>
+        <v>0.1321189700356197</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>631</v>
@@ -4324,19 +4324,19 @@
         <v>529775</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>487241</v>
+        <v>489760</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>572610</v>
+        <v>570917</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1211772011634166</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.11144825478861</v>
+        <v>0.1120244163949667</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1309749647257289</v>
+        <v>0.1305877631564923</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>1941504</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1905020</v>
+        <v>1908836</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1971633</v>
+        <v>1975200</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8775752473059804</v>
+        <v>0.8775752473059802</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8610841824705616</v>
+        <v>0.8628092478444352</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8911940924512624</v>
+        <v>0.8928064593088216</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2535</v>
@@ -4374,19 +4374,19 @@
         <v>1900623</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1870607</v>
+        <v>1874233</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1925356</v>
+        <v>1925279</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8801008518134988</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8662016497337776</v>
+        <v>0.8678810299643801</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8915538592458333</v>
+        <v>0.8915182046677376</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4244</v>
@@ -4395,19 +4395,19 @@
         <v>3842127</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3799292</v>
+        <v>3800985</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3884661</v>
+        <v>3882142</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8788227988365832</v>
+        <v>0.8788227988365834</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8690250352742708</v>
+        <v>0.8694122368435078</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8885517452113895</v>
+        <v>0.8879755836050335</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>64105</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>48324</v>
+        <v>48306</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>84124</v>
+        <v>82473</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.09100648081479995</v>
+        <v>0.09100648081479994</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06860332891509335</v>
+        <v>0.06857783267089995</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1194263755019174</v>
+        <v>0.1170822261707908</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>82</v>
@@ -4520,19 +4520,19 @@
         <v>57473</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>45046</v>
+        <v>46823</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>70183</v>
+        <v>71842</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07886477948448477</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06181196595131724</v>
+        <v>0.06425078720593905</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09630528730533824</v>
+        <v>0.09858205727927356</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>142</v>
@@ -4541,19 +4541,19 @@
         <v>121578</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>101760</v>
+        <v>101841</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>145146</v>
+        <v>147353</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.08483246293473422</v>
+        <v>0.0848324629347342</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07100442610741668</v>
+        <v>0.07106090185851158</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1012776067690856</v>
+        <v>0.1028173170224235</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>640294</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>620275</v>
+        <v>621926</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>656075</v>
+        <v>656093</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9089935191852</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8805736244980825</v>
+        <v>0.8829177738292092</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9313966710849066</v>
+        <v>0.9314221673290997</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>912</v>
@@ -4591,19 +4591,19 @@
         <v>671281</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>658571</v>
+        <v>656912</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>683708</v>
+        <v>681931</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9211352205155151</v>
+        <v>0.9211352205155153</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9036947126946617</v>
+        <v>0.9014179427207265</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9381880340486827</v>
+        <v>0.9357492127940611</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1526</v>
@@ -4612,19 +4612,19 @@
         <v>1311576</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1288008</v>
+        <v>1285801</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1331394</v>
+        <v>1331313</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9151675370652659</v>
+        <v>0.9151675370652657</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8987223932309145</v>
+        <v>0.897182682977576</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9289955738925835</v>
+        <v>0.928939098141488</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>473843</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>429906</v>
+        <v>434747</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>517886</v>
+        <v>517178</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1356233997107924</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1230478856968224</v>
+        <v>0.1244334817795155</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.148229453292952</v>
+        <v>0.1480267244831732</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>841</v>
@@ -4737,19 +4737,19 @@
         <v>537397</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>500794</v>
+        <v>497820</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>575707</v>
+        <v>574463</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1448376191994924</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1349722950284642</v>
+        <v>0.1341709509569856</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1551626714960657</v>
+        <v>0.1548273782331389</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1352</v>
@@ -4758,19 +4758,19 @@
         <v>1011240</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>957854</v>
+        <v>957231</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1069046</v>
+        <v>1070209</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.14036898250402</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.132958546003264</v>
+        <v>0.1328719909299082</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1483930049833243</v>
+        <v>0.1485544016330423</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3019970</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2975927</v>
+        <v>2976635</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3063907</v>
+        <v>3059066</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8643766002892076</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8517705467070479</v>
+        <v>0.8519732755168268</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8769521143031774</v>
+        <v>0.8755665182204845</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4477</v>
@@ -4808,19 +4808,19 @@
         <v>3172946</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3134636</v>
+        <v>3135880</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3209549</v>
+        <v>3212523</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8551623808005078</v>
+        <v>0.8551623808005077</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8448373285039343</v>
+        <v>0.845172621766861</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8650277049715358</v>
+        <v>0.8658290490430145</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7308</v>
@@ -4829,19 +4829,19 @@
         <v>6192916</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6135110</v>
+        <v>6133947</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6246302</v>
+        <v>6246925</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8596310174959799</v>
+        <v>0.85963101749598</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8516069950166757</v>
+        <v>0.851445598366958</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8670414539967355</v>
+        <v>0.8671280090700918</v>
       </c>
     </row>
     <row r="15">
